--- a/datasheets/biosamples.xlsx
+++ b/datasheets/biosamples.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F261A97C-0A96-A643-918D-29F04AEB7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88153643-DBB9-5D4F-A3C1-980683412ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="18760" windowHeight="16280" xr2:uid="{D2F275D3-52A6-9244-9CDB-2A261F63326F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>biosampleStatus_id</t>
   </si>
@@ -1131,15 +1131,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE19CE58-566B-594C-B7CC-2BD6C05A31BB}">
-  <dimension ref="C1:CO2"/>
+  <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="CO2" sqref="CN1:CO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="3:93" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1417,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:93" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>97</v>
       </c>
